--- a/Income/IP_inc.xlsx
+++ b/Income/IP_inc.xlsx
@@ -2108,16 +2108,16 @@
         <v>0.2404</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.2504</v>
+        <v>0.2655</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.27</v>
+        <v>0.2848</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.2887</v>
+        <v>0.303</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.3036</v>
+        <v>0.3177</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.3254</v>
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2.4757</v>
+        <v>2.4742</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1.2266</v>
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2.4792</v>
+        <v>2.4777</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1.2301</v>
@@ -4117,16 +4117,16 @@
         <v>0.1454</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.1559</v>
+        <v>0.1565</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.1624</v>
+        <v>0.163</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.1688</v>
+        <v>0.1693</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.1738</v>
+        <v>0.1743</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.1845</v>
